--- a/biology/Zoologie/Blongios_de_Schrenck/Blongios_de_Schrenck.xlsx
+++ b/biology/Zoologie/Blongios_de_Schrenck/Blongios_de_Schrenck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixobrychus eurhythmus
 Le Blongios de Schrenck (Ixobrychus eurhythmus) ou blongios mandchou, blongios oriental, est une espèce d'oiseaux de la famille des ardéidés qu’on retrouve en Asie.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom rend hommage à l'ethnologue et zoologiste allemand Leopold Ivanovitch von Schrenck (1826-1894).
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce blongios niche en Corée, dans l’est de la Chine, de la Mongolie et de la Russie ainsi que dans la moitié nord du Japon. Il hiverne dans la moitié sud du Japon, dans le Sud de la Chine, au Viêt Nam, en Thaïlande, au Laos, au Cambodge, en Indonésie et aux Philippines.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Blongios de Schrenck fréquente les milieux ouverts herbeux, les marais, les rizières et les roselières. On l’observa aussi dans les milieux plus secs, comme les pâturages parsemés d’arbustes.
 </t>
@@ -605,7 +623,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche en solitaire. Le nid est placé à moins d’un mètre du sol non loin de l’eau et est bien camouflé dans les herbes hautes ou dans un buisson. Le nid est fait de tiges d’herbes sèches et est tapissé d’herbes et de feuilles sèches. Les œufs sont au nombre de 3 à 5.
 </t>
@@ -637,6 +657,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
